--- a/biology/Botanique/Aster_des_Pyrénées/Aster_des_Pyrénées.xlsx
+++ b/biology/Botanique/Aster_des_Pyrénées/Aster_des_Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aster_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Aster_des_Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aster pyrenaeus
-L'aster des Pyrénées Écouter (Aster pyrenaeus) est une espèce de plante à fleurs du genre Aster, famille des Asteraceae. Elle est rare et endémique des Pyrénées et de la cordillère Cantabrique[1].
+L'aster des Pyrénées Écouter (Aster pyrenaeus) est une espèce de plante à fleurs du genre Aster, famille des Asteraceae. Elle est rare et endémique des Pyrénées et de la cordillère Cantabrique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aster_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Aster_des_Pyrénées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
 Description de Jean Henri Jaume Saint-Hilaire dans La flore et la pomone françaises (1831) : « L'Aster des Pyrénées, Aster Pyrenaeus, DESF. est une plante vivace, dont la tige, haute d'environ deux pieds, est munie de feuilles rapprochées, oblongues, sessiles et un peu embrassantes à leur base, entières ou munies de quelques dents au sommet ; les fleurs sont grandes, d'un bleu lilas ; toute la plante est velue. Fleurit : en juillet et en août. Habitat : les Pyrénées, où elle est assez rare. 
